--- a/Documents/Parts.xlsx
+++ b/Documents/Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KevMcK/Dropbox/2 Work/1 Optics Lab/2 FOSSN/Documents/Parts List/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEF2224-1411-9940-8B7E-7F864E10D657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505DD8ED-09DA-2C41-8060-E0C3CA46076D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="500" windowWidth="30820" windowHeight="21100" xr2:uid="{1B20C622-6E99-8543-9344-2C2DF1B851B5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>FOSSN Acoustic Purchase List</t>
   </si>
@@ -201,6 +201,24 @@
   </si>
   <si>
     <t>JLCPB Order for DE10-Nano Kit Shield</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B084Q4W1PW?psc=1&amp;smid=A12R7FMO56ISX4&amp;ref_=chk_typ_imgToDp</t>
+  </si>
+  <si>
+    <t>FPGA Board Pin Extenders</t>
+  </si>
+  <si>
+    <t>2x20 Etra Tall Femaile Pin Header</t>
+  </si>
+  <si>
+    <t>Battery Cable</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07PT9SXL8?smid=A38M7NHUQS24NM&amp;ref_=chk_typ_imgToDp&amp;th=1</t>
+  </si>
+  <si>
+    <t>USB-C Male to DC 5.5X2.5mm Male Power Jack</t>
   </si>
 </sst>
 </file>
@@ -257,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -280,12 +298,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -304,6 +333,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -624,7 +660,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,8 +678,8 @@
         <v>19</v>
       </c>
       <c r="D1" s="6">
-        <f>SUM(E4:E16)</f>
-        <v>1096.28</v>
+        <f>SUM(E4:E19)</f>
+        <v>605.70000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -677,11 +713,11 @@
         <v>190</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5">
-        <f>C4*D4</f>
-        <v>380</v>
+        <f t="shared" ref="E4:E17" si="0">C4*D4</f>
+        <v>190</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -698,11 +734,11 @@
         <v>25.87</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
-        <f>C5*D5</f>
-        <v>51.74</v>
+        <f t="shared" si="0"/>
+        <v>25.87</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -719,11 +755,11 @@
         <v>1.38</v>
       </c>
       <c r="D6" s="2">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="E6" s="5">
-        <f>C6*D6</f>
-        <v>160.07999999999998</v>
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -740,11 +776,11 @@
         <v>6.99</v>
       </c>
       <c r="D7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
-        <f>C7*D7</f>
-        <v>13.98</v>
+        <f t="shared" si="0"/>
+        <v>6.99</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>35</v>
@@ -767,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <f>C8*D8</f>
+        <f t="shared" si="0"/>
         <v>7.99</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -788,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="8">
-        <f>C9*D9</f>
+        <f t="shared" si="0"/>
         <v>9.24</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -809,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <f>C10*D10</f>
+        <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -827,11 +863,11 @@
         <v>33.99</v>
       </c>
       <c r="D11" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="8">
-        <f>C11*D11</f>
-        <v>67.98</v>
+        <f t="shared" si="0"/>
+        <v>33.99</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>36</v>
@@ -848,11 +884,11 @@
         <v>10.9</v>
       </c>
       <c r="D12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="8">
-        <f>C12*D12</f>
-        <v>21.8</v>
+        <f t="shared" si="0"/>
+        <v>10.9</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>40</v>
@@ -869,11 +905,11 @@
         <v>91.75</v>
       </c>
       <c r="D13" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="8">
-        <f>C13*D13</f>
-        <v>183.5</v>
+        <f t="shared" si="0"/>
+        <v>91.75</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>51</v>
@@ -890,11 +926,11 @@
         <v>49.99</v>
       </c>
       <c r="D14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5">
-        <f>C14*D14</f>
-        <v>99.98</v>
+        <f t="shared" si="0"/>
+        <v>49.99</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>32</v>
@@ -914,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="5">
-        <f>C15*D15</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="F15" s="1"/>
@@ -933,15 +969,48 @@
         <v>15</v>
       </c>
       <c r="E16" s="5">
-        <f>C16*D16</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="0"/>
+        <v>9.99</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <f>C18*D18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -959,6 +1028,27 @@
         <v>0</v>
       </c>
       <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="5">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <f>C20*D20</f>
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">

--- a/Documents/Parts.xlsx
+++ b/Documents/Parts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KevMcK/Dropbox/2 Work/1 Optics Lab/2 FOSSN/Documents/Parts List/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KevMcK/Dropbox/2 Work/1 Optics Lab/2 FOSSN/Software/phase_array_fossn/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505DD8ED-09DA-2C41-8060-E0C3CA46076D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB25F698-3A8B-7E46-8543-D64EE43DBC0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="500" windowWidth="30820" windowHeight="21100" xr2:uid="{1B20C622-6E99-8543-9344-2C2DF1B851B5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>FOSSN Acoustic Purchase List</t>
   </si>
@@ -219,6 +219,42 @@
   </si>
   <si>
     <t>USB-C Male to DC 5.5X2.5mm Male Power Jack</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B0B2D836LY/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Wind Foam / Muff</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Lysymixs-Ethernet-Centers-Network-Enterprise/dp/B0CY1PNCDY/ref=sr_1_12_sspa?crid=3D15LD1HOKZ42&amp;dib=eyJ2IjoiMSJ9.ZJyalevnIhl95NMTPV0TUDyib_D2nEcOGmkg3sGiRT6GwsudxR6aAmEWZVX6l-E9XLdtAjfsvVs2LnHD_plM8c-GIkW49HP5wOWvALCXbN0TUBwplczNFXOSWb9n5r2f9q0z5mcQH0FxEF8HbKPokwIsmx-fvB1-XkZVo3n1JzP4Qildgw0bxhvRXQfngqgLbYTZi_e6sDNLN8lD6NsKn8YyKYzCcMijqflijw4y2kc.NeJU6VxXnt_qToo1fXuYU4jRCgDK67ZB9krwlsZM64Y&amp;dib_tag=se&amp;keywords=ethernet%2Bcabling&amp;qid=1719953942&amp;sprefix=ethernet%2Bcablin%2Caps%2C119&amp;sr=8-12-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;th=1</t>
+  </si>
+  <si>
+    <t>Cat6 Ethernet Patch Cable 6 ft (10 Pack)</t>
+  </si>
+  <si>
+    <t>Furry Windscreen &amp; Foam for Lavalier Lapel Mic</t>
+  </si>
+  <si>
+    <t>Tripod Bag</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B0CW3BZK58/ref=ppx_yo_dt_b_asin_title_o00_s01?ie=UTF8&amp;th=1</t>
+  </si>
+  <si>
+    <t>FPGA Mounting Clamp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B09S61H68B/ref=ppx_yo_dt_b_asin_title_o00_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Cable Ties</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B08V8NK5TN?ref=ppx_yo2ov_dt_b_product_details&amp;th=1</t>
+  </si>
+  <si>
+    <t>Ethernet Cable Boots</t>
   </si>
 </sst>
 </file>
@@ -657,16 +693,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E57B6-D49A-3F48-A921-BC979D4C9169}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="94" customWidth="1"/>
   </cols>
   <sheetData>
@@ -678,8 +714,8 @@
         <v>19</v>
       </c>
       <c r="D1" s="6">
-        <f>SUM(E4:E19)</f>
-        <v>605.70000000000005</v>
+        <f>SUM(E4:E29)</f>
+        <v>1086.45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -713,11 +749,11 @@
         <v>190</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:E17" si="0">C4*D4</f>
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -734,11 +770,11 @@
         <v>25.87</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>25.87</v>
+        <v>51.74</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -863,11 +899,11 @@
         <v>33.99</v>
       </c>
       <c r="D11" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" si="0"/>
-        <v>33.99</v>
+        <v>67.98</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>36</v>
@@ -884,11 +920,11 @@
         <v>10.9</v>
       </c>
       <c r="D12" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="0"/>
-        <v>10.9</v>
+        <v>21.8</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>40</v>
@@ -926,11 +962,11 @@
         <v>49.99</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>49.99</v>
+        <v>99.98</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>32</v>
@@ -997,144 +1033,251 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C18" s="5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5">
         <f>C18*D18</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1"/>
+      <c r="A19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C19" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5">
         <f>C19*D19</f>
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="11">
+        <v>9</v>
+      </c>
+      <c r="D20" s="12">
+        <v>10</v>
+      </c>
+      <c r="E20" s="11">
+        <f>C20*D20</f>
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="11">
+        <v>12</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
+        <f>C21*D21</f>
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="11">
+        <v>30</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11">
+        <f>C22*D22</f>
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="11">
+        <v>6</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
+        <f>C23*D23</f>
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="11">
+        <v>9</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" ref="E24:E29" si="1">C24*D24</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E25" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="5">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
-        <f>C20*D20</f>
-        <v>7</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E28" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>14</v>
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="5">
+        <v>23.99</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <f>C35*D35</f>
+        <v>23.99</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C36" s="5">
-        <v>23.99</v>
+        <v>61.75</v>
       </c>
       <c r="D36" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="5">
         <f>C36*D36</f>
-        <v>23.99</v>
+        <v>123.5</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C37" s="5">
-        <v>61.75</v>
+        <v>40.99</v>
       </c>
       <c r="D37" s="2">
         <v>2</v>
       </c>
       <c r="E37" s="5">
         <f>C37*D37</f>
-        <v>123.5</v>
+        <v>81.98</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="5">
-        <v>40.99</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-      <c r="E38" s="5">
-        <f>C38*D38</f>
-        <v>81.98</v>
-      </c>
-      <c r="F38" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Documents/Parts.xlsx
+++ b/Documents/Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KevMcK/Dropbox/2 Work/1 Optics Lab/2 FOSSN/Software/phase_array_fossn/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB25F698-3A8B-7E46-8543-D64EE43DBC0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C26328E-7930-494E-8796-495628CD7F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="500" windowWidth="30820" windowHeight="21100" xr2:uid="{1B20C622-6E99-8543-9344-2C2DF1B851B5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>FOSSN Acoustic Purchase List</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>Ethernet Cable Boots</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07G237Z5M?psc=1&amp;ref=ppx_yo2ov_dt_b_product_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0CW3BZK58?ref=ppx_yo2ov_dt_b_product_details&amp;th=1</t>
   </si>
 </sst>
 </file>
@@ -715,7 +721,7 @@
       </c>
       <c r="D1" s="6">
         <f>SUM(E4:E29)</f>
-        <v>1086.45</v>
+        <v>728.7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -749,11 +755,11 @@
         <v>190</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:E17" si="0">C4*D4</f>
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -770,11 +776,11 @@
         <v>25.87</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>51.74</v>
+        <v>25.87</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -899,11 +905,11 @@
         <v>33.99</v>
       </c>
       <c r="D11" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" si="0"/>
-        <v>67.98</v>
+        <v>33.99</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>36</v>
@@ -920,11 +926,11 @@
         <v>10.9</v>
       </c>
       <c r="D12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="0"/>
-        <v>21.8</v>
+        <v>10.9</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>40</v>
@@ -962,11 +968,11 @@
         <v>49.99</v>
       </c>
       <c r="D14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>99.98</v>
+        <v>49.99</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>32</v>
@@ -983,11 +989,11 @@
         <v>3</v>
       </c>
       <c r="D15" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1002,11 +1008,11 @@
         <v>3</v>
       </c>
       <c r="D16" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1045,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="5">
-        <f>C18*D18</f>
+        <f t="shared" ref="E18:E23" si="1">C18*D18</f>
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1066,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="5">
-        <f>C19*D19</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1074,122 +1080,141 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
         <v>9</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="9">
         <v>10</v>
       </c>
-      <c r="E20" s="11">
-        <f>C20*D20</f>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="11">
+      <c r="B21" s="1"/>
+      <c r="C21" s="8">
         <v>12</v>
       </c>
-      <c r="D21" s="12">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11">
-        <f>C21*D21</f>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="11">
+      <c r="B22" s="1"/>
+      <c r="C22" s="8">
         <v>30</v>
       </c>
-      <c r="D22" s="12">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11">
-        <f>C22*D22</f>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="11">
+      <c r="B23" s="1"/>
+      <c r="C23" s="8">
         <v>6</v>
       </c>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11">
-        <f>C23*D23</f>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="11">
+      <c r="B24" s="1"/>
+      <c r="C24" s="8">
         <v>9</v>
       </c>
-      <c r="D24" s="12">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11">
-        <f t="shared" ref="E24:E29" si="1">C24*D24</f>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" ref="E24:E29" si="2">C24*D24</f>
         <v>9</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="11">
+        <v>10</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
       <c r="E25" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>

--- a/Documents/Parts.xlsx
+++ b/Documents/Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KevMcK/Dropbox/2 Work/1 Optics Lab/2 FOSSN/Software/phase_array_fossn/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C26328E-7930-494E-8796-495628CD7F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F40BADC-30D9-8340-94F8-277C6AC3EA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="500" windowWidth="30820" windowHeight="21100" xr2:uid="{1B20C622-6E99-8543-9344-2C2DF1B851B5}"/>
+    <workbookView xWindow="10320" yWindow="3320" windowWidth="57980" windowHeight="21100" xr2:uid="{1B20C622-6E99-8543-9344-2C2DF1B851B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>FOSSN Acoustic Purchase List</t>
   </si>
@@ -101,51 +101,27 @@
     <t>Raspbery Pi 4 Model B 2019 Quad Core 64bit</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Raspberry-Model-2019-Quad-Bluetooth/dp/B07TC2BK1X/ref=sr_1_3?dib=eyJ2IjoiMSJ9.NEm2YLGCstyIIC7r92F1Ysk7yNYZjCs1FcJeImh_QMWnZBlHHOrjDYoKrpjbY51YyqyBJH4IqTAok3xZD9UtQgnDUbH9wRhaW9ST6fbWCRU6nwt_5ARnwmLOr_HsW0ebPBOg5TUcbhkcNH7k_9UvKyZ5D-3pySc56pf4D_Unt0-RyypjH-SxAw7ndkcADImWVSDeu2xq9xTCNjC26X18NKOr05bhPtSBCfdqTo2t0BM.TXKaKpPXHiu5YP_4l9_bQewWB4E3al3DGyoX-niYN9g&amp;dib_tag=se&amp;keywords=raspberry%2Bpi&amp;qid=1713384161&amp;sr=8-3&amp;th=1</t>
-  </si>
-  <si>
     <t>SD Card</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SanDisk-256GB-Extreme-MicroSDXC-Memory/dp/B082WNC4NK/ref=sr_1_18?crid=1HCIFENYB6SGP&amp;dib=eyJ2IjoiMSJ9.DSMJ68O1HceDcKtjhckXQXpqJ4Kzs2Za7KEprDaMN65-fZhGDkWbNnVZHTEM1fmUeU64zyAKj7iQ3ax813LVaNZ1D-Vs0LDtcV-Y5-8qjpMmRgnvo90ifLVpZo5fG-fKm3YOhDdUkxHelYHuatPBZCvHrwWkzVMidm1i4YdGehpXdniFh72CxniunkMk0PyRt7i9uKrY_x5aa7lzsP55nME0GZQfh5O-_zgBmKdi1xs.CCiwX4WFfa5Z_k0SJq6wtWSWELhCBUcIIJy2N820BJk&amp;dib_tag=se&amp;keywords=micro+sd+card&amp;qid=1713384252&amp;sprefix=mirco+sd+card%2Caps%2C94&amp;sr=8-18</t>
-  </si>
-  <si>
     <t>SanDisk 256GB Micro SD Card</t>
   </si>
   <si>
-    <t>https://www.amazon.com/CableCreation-100-PACK-Connector-Connectors-Transparent/dp/B01K9Z4FT2/ref=sr_1_1_sspa?crid=31UJKGKJYLST5&amp;dib=eyJ2IjoiMSJ9.-WD8pQ352cZdS5qe66wuDdWhfjnWHKshfu1WiwjFLJbu9EoYkt604cE_tQdor1w6YMsmEF_oT2qqzX4ByWaHDE6mmWMP_D-6qvp29HI0x3yba69pm5eg6P-ZXczOoug8MypS_a42HK3zW6cGfhJBJxxE9YdeEINQICAp5s5EmMMgsrm71xsFoQ14_AQrNY59HAP0CB-suNtPcRPdUoB0L1h_HYVkGX6KICtvEwBKIRw.SfQnpA5XZ3wgwbIl1qVC5ZPDsNKzgutSY7owsS1SwdA&amp;dib_tag=se&amp;keywords=rj45%2Bconnectors&amp;qid=1713384385&amp;sprefix=rj45%2Bc%2Caps%2C115&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
-  </si>
-  <si>
     <t>RJ45 Ethernet Connectors (50 pack)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/VCE-25-Pack-Degree-Keystone-Adapter-Blue/dp/B07PXJB48V/ref=sxin_15_pa_sp_search_thematic_sspa?content-id=amzn1.sym.ac6cd4d9-9e7f-4a56-a0ad-8c30e23aeff2%3Aamzn1.sym.ac6cd4d9-9e7f-4a56-a0ad-8c30e23aeff2&amp;crid=31WPXM7C4B7E4&amp;cv_ct_cx=ethernet%2Bjacks&amp;dib=eyJ2IjoiMSJ9.6WUyuQ8te7-hpRcL3_YADMcaX3d9z6r2CZBkRbqFtL23194xHY9X2PMLXHrcdmPKR6vzuZsSj3RGTUFNMUZs-A.oNl_3CpKJPeJ3nEmkwTH03XZC-50jncQapqBdI0CMks&amp;dib_tag=se&amp;keywords=ethernet%2Bjacks&amp;pd_rd_i=B07PXJB48V&amp;pd_rd_r=8612d577-5f3a-4fb0-8f81-5432bfe14b0e&amp;pd_rd_w=Id69q&amp;pd_rd_wg=5xFC5&amp;pf_rd_p=ac6cd4d9-9e7f-4a56-a0ad-8c30e23aeff2&amp;pf_rd_r=GXTMF9TPK8HSBB6Y0DPT&amp;qid=1713384466&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=ethernet%2Bjacks%2Caps%2C93&amp;sr=1-1-364cf978-ce2a-480a-9bb0-bdb96faa0f61-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM&amp;th=1</t>
-  </si>
-  <si>
     <t>RJ45 Keystone Jacks Slim Profile (25 pack)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/BrosTrend-USB-WiFi-Linux-Adapter/dp/B0BTHQNK5S/ref=sr_1_1_sspa?crid=1LEV5Y0KOXWUE&amp;dib=eyJ2IjoiMSJ9.gg4O9JwKdGPSt1rbyaGnl_yh9PSNPLDSgcxG0NlqFRkt2Em-P1dlOELM65kqLNJYkpLs2Jqklk7PtHMQ2JlmA9KebJDqbiNlqUqg8EOrDuP5KKdf0kOcdp1kMd0NGCPyIWMYupm1bSUHPuJeYcKrujVMlx2PLPqmalZ6H14Bd2QOditTwxLnhu8UQwfADGOFFuUjd1ArX8gp2tHmwhfWmZ67Oav4WcWDB8xIFA6FfQch8IRQtMXn4qHoW4xLCDY-SX1Kl1qAGkYiJOW-bjvzIytBt-lNINfolyJSuY3yS_4.ahTsEMxkik7Iob1GfYKquwYdhcyjmO6eopTpkB8zJ0c&amp;dib_tag=se&amp;keywords=BrosTrend+linux+wifi+adapter&amp;qid=1713384729&amp;s=electronics&amp;sprefix=brostrend+linux+wifi+adapter+%2Celectronics%2C149&amp;sr=1-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
-  </si>
-  <si>
     <t>BrosTrend AX1800 USB Wifi 6 Linux Compat</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Portable-Charger-Power-Bank-50000mAh-Powerbank-Charging-External/dp/B0C147N71M/ref=sr_1_11?crid=3L5DJB6KA4Y3A&amp;dib=eyJ2IjoiMSJ9.US9y54tNw9uq8CIww4oz6KZwBlLhrb3d8hbAZkeiOka4ISLGl444b4L-KFyBkcnZXffBhZC_yBCT00SMljS1x0yt14G_WR7YuFD8YoeofDlFteSuBwT8OQquSfJKlbwIQiS0g5SRFim-ZQ7R_uUbApaVl49MIRshfsmd-PZOtq5XtTvmFsZYyU9Kh4f3Sv5zTleG-vtnU1M0PmO2ih2nND-IZ12u8y6RGfXuEWR_NDYEmtqZMNXoZcBTb6JP_B_hzpY6CqwDunZJhfymqdewIyGQg4CRIo-MDSO913-2JTg.qe7ysQiXHmB0AH5tZPvW2Js5EnpKtYE78elAA1ihKMg&amp;dib_tag=se&amp;keywords=battery+pack+large&amp;qid=1713384801&amp;s=electronics&amp;sprefix=battery+pack+large%2Celectronics%2C93&amp;sr=1-11</t>
-  </si>
-  <si>
     <t>Portable Power Bank 50000mAh 30W</t>
   </si>
   <si>
     <t>Mic Power</t>
   </si>
   <si>
-    <t>https://www.amazon.com/WWZMDiB-AMS1117-3-3-Converter-4-75-12V-Step-Down/dp/B0BD5BMXBK/ref=sr_1_1_sspa?dib=eyJ2IjoiMSJ9.Tbds63XX1ekJ02GOGAgxKQ9E2snqJcrJavwJKtgqE0ymPmO5s8ty4xlx_5H5J6UuCimNxj_HLeMS4wRO-E6RphsTbWvU84fmGfFrftah3VAiDzcFDZL98dXBSlcGMYouZD1GkNV70UrZr2uqCLFj3iEHzPBthLFpOldHJ7tfDKXJm1RMgatjAWry5xOfKKUJkHrU1d_9dlH8G1uyI-3nBfSw_HThEj9FwowaZQI_klM.8wiLayxlzRqS3m4KTbHgw7-yYCbwVqCysIwDIizufTM&amp;dib_tag=se&amp;keywords=5V%2Bto%2B3.3V&amp;qid=1713385065&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/CAMBOFOTO-Camera-Tripod-Porfessional-Mirrorless-Camcorder/dp/B0C8LXL2Y4/ref=sr_1_2_sspa?crid=ZDHU3HP7NAS2&amp;dib=eyJ2IjoiMSJ9.UljEBZiBVP909_G2AiXg_eMCHrUbQ4K3AOoU35YNkq99p2S7NoWTiKtMVUIvMozVgyFqD692omunyaZKwm-Fx5vNGJTdUnxkaV4FG6NeyOiWPVwJ9RuHgADyoDeH5i43zfnRl_-GNRK3R_JdrerioiNd16y_wXaVuBSEsmmnHFGpvcs0FNjRZvA86eM7KUW99NBD7uNF7qRNfvHVYt0dEiqiyPGCrqjnsyuQiVzRqxE.U8sG6dip53LIvz1kZgJe6R-N9sSpTtW7Hvth66TSJkg&amp;dib_tag=se&amp;keywords=tripod&amp;qid=1713385364&amp;sprefix=tripod%2Caps%2C127&amp;sr=8-2-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
-  </si>
-  <si>
     <t>Tripod</t>
   </si>
   <si>
@@ -227,9 +203,6 @@
     <t>Wind Foam / Muff</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Lysymixs-Ethernet-Centers-Network-Enterprise/dp/B0CY1PNCDY/ref=sr_1_12_sspa?crid=3D15LD1HOKZ42&amp;dib=eyJ2IjoiMSJ9.ZJyalevnIhl95NMTPV0TUDyib_D2nEcOGmkg3sGiRT6GwsudxR6aAmEWZVX6l-E9XLdtAjfsvVs2LnHD_plM8c-GIkW49HP5wOWvALCXbN0TUBwplczNFXOSWb9n5r2f9q0z5mcQH0FxEF8HbKPokwIsmx-fvB1-XkZVo3n1JzP4Qildgw0bxhvRXQfngqgLbYTZi_e6sDNLN8lD6NsKn8YyKYzCcMijqflijw4y2kc.NeJU6VxXnt_qToo1fXuYU4jRCgDK67ZB9krwlsZM64Y&amp;dib_tag=se&amp;keywords=ethernet%2Bcabling&amp;qid=1719953942&amp;sprefix=ethernet%2Bcablin%2Caps%2C119&amp;sr=8-12-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;th=1</t>
-  </si>
-  <si>
     <t>Cat6 Ethernet Patch Cable 6 ft (10 Pack)</t>
   </si>
   <si>
@@ -261,6 +234,36 @@
   </si>
   <si>
     <t>https://www.amazon.com/dp/B0CW3BZK58?ref=ppx_yo2ov_dt_b_product_details&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SanDisk-256GB-Extreme-MicroSDXC-Memory/dp/B082WNC4NK/ref=sr_1_18</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/WWZMDiB-AMS1117-3-3-Converter-4-75-12V-Step-Down/dp/B0BD5BMXBK/ref=sr_1_1_sspa</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/CableCreation-100-PACK-Connector-Connectors-Transparent/dp/B01K9Z4FT2/ref=sr_1_1_sspa</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/CAMBOFOTO-Camera-Tripod-Porfessional-Mirrorless-Camcorder/dp/B0C8LXL2Y4/ref=sr_1_2_sspa</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Portable-Charger-Power-Bank-50000mAh-Powerbank-Charging-External/dp/B0C147N71M/ref=sr_1_11</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Lysymixs-Ethernet-Centers-Network-Enterprise/dp/B0CY1PNCDY/ref=sr_1_12_sspa</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Panda-Wireless-PAU0B-Adapter-Antenna/dp/B08NPX2X4Z/ref=asc_df_B08NPX2X4Z/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/VCE-25-Pack-Degree-Keystone-Adapter-Blue/dp/B07PXJB48V/ref=sxin_15_pa_sp_search_thematic_sspa</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Raspberry-Model-2019-Quad-Bluetooth/dp/B07TC2BK1X/ref=sr_1_3niYN9g&amp;dib_tag=se&amp;keywords=raspberry%2Bpi&amp;qid=1713384161&amp;sr=8-3&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/BrosTrend-USB-WiFi-Linux-Adapter/dp/B0BTHQNK5S/ref=sr_1_1_sspa</t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -384,6 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -702,14 +706,14 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="94" customWidth="1"/>
+    <col min="6" max="6" width="149.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -721,7 +725,7 @@
       </c>
       <c r="D1" s="6">
         <f>SUM(E4:E29)</f>
-        <v>728.7</v>
+        <v>756.69</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -767,10 +771,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C5" s="5">
         <v>25.87</v>
@@ -782,8 +786,8 @@
         <f t="shared" si="0"/>
         <v>25.87</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
+      <c r="F5" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -809,10 +813,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5">
         <v>6.99</v>
@@ -824,8 +828,8 @@
         <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
+      <c r="F7" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -833,10 +837,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>7.99</v>
@@ -849,7 +853,7 @@
         <v>7.99</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -857,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C9" s="8">
         <v>9.24</v>
@@ -870,7 +874,7 @@
         <v>9.24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -878,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5">
         <v>9.99</v>
@@ -890,16 +894,16 @@
         <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
+      <c r="F10" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C11" s="8">
         <v>33.99</v>
@@ -911,16 +915,16 @@
         <f t="shared" si="0"/>
         <v>33.99</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>36</v>
+      <c r="F11" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8">
         <v>10.9</v>
@@ -933,15 +937,15 @@
         <v>10.9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C13" s="8">
         <v>91.75</v>
@@ -954,7 +958,7 @@
         <v>91.75</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -962,7 +966,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5">
         <v>49.99</v>
@@ -974,16 +978,16 @@
         <f t="shared" si="0"/>
         <v>49.99</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
+      <c r="F14" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C15" s="5">
         <v>3</v>
@@ -999,10 +1003,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C16" s="5">
         <v>3</v>
@@ -1018,10 +1022,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C17" s="11">
         <v>9.99</v>
@@ -1034,7 +1038,7 @@
         <v>9.99</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1042,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C18" s="5">
         <v>16</v>
@@ -1054,16 +1058,16 @@
         <f t="shared" ref="E18:E23" si="1">C18*D18</f>
         <v>16</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>64</v>
+      <c r="F18" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5">
         <v>7</v>
@@ -1076,15 +1080,15 @@
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C20" s="8">
         <v>9</v>
@@ -1097,12 +1101,12 @@
         <v>90</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="8">
@@ -1116,12 +1120,12 @@
         <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="8">
@@ -1135,12 +1139,12 @@
         <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="8">
@@ -1154,12 +1158,12 @@
         <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="8">
@@ -1173,12 +1177,12 @@
         <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C25" s="11">
         <v>10</v>
@@ -1191,13 +1195,25 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="11">
+        <v>27.99</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
       <c r="E26" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27.99</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1220,7 +1236,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1248,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C35" s="5">
         <v>23.99</v>
@@ -1260,8 +1276,8 @@
         <f>C35*D35</f>
         <v>23.99</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>28</v>
+      <c r="F35" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1281,8 +1297,8 @@
         <f>C36*D36</f>
         <v>123.5</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>22</v>
+      <c r="F36" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1290,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C37" s="5">
         <v>40.99</v>
@@ -1302,8 +1318,8 @@
         <f>C37*D37</f>
         <v>81.98</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>30</v>
+      <c r="F37" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Parts.xlsx
+++ b/Documents/Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KevMcK/Dropbox/2 Work/1 Optics Lab/2 FOSSN/Software/phase_array_fossn/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F40BADC-30D9-8340-94F8-277C6AC3EA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDE7A57-814E-E446-BDB4-DBA92F26573A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="3320" windowWidth="57980" windowHeight="21100" xr2:uid="{1B20C622-6E99-8543-9344-2C2DF1B851B5}"/>
+    <workbookView xWindow="1520" yWindow="760" windowWidth="22340" windowHeight="18880" xr2:uid="{1B20C622-6E99-8543-9344-2C2DF1B851B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>FOSSN Acoustic Purchase List</t>
   </si>
@@ -110,12 +110,6 @@
     <t>RJ45 Ethernet Connectors (50 pack)</t>
   </si>
   <si>
-    <t>RJ45 Keystone Jacks Slim Profile (25 pack)</t>
-  </si>
-  <si>
-    <t>BrosTrend AX1800 USB Wifi 6 Linux Compat</t>
-  </si>
-  <si>
     <t>Portable Power Bank 50000mAh 30W</t>
   </si>
   <si>
@@ -146,9 +140,6 @@
     <t>3.3V Linear Regulator</t>
   </si>
   <si>
-    <t>Old</t>
-  </si>
-  <si>
     <t>Mic Socket</t>
   </si>
   <si>
@@ -215,12 +206,6 @@
     <t>https://www.amazon.com/gp/product/B0CW3BZK58/ref=ppx_yo_dt_b_asin_title_o00_s01?ie=UTF8&amp;th=1</t>
   </si>
   <si>
-    <t>FPGA Mounting Clamp</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/product/B09S61H68B/ref=ppx_yo_dt_b_asin_title_o00_s00?ie=UTF8&amp;psc=1</t>
-  </si>
-  <si>
     <t>Cable Ties</t>
   </si>
   <si>
@@ -257,13 +242,55 @@
     <t>https://www.amazon.com/Panda-Wireless-PAU0B-Adapter-Antenna/dp/B08NPX2X4Z/ref=asc_df_B08NPX2X4Z/</t>
   </si>
   <si>
-    <t>https://www.amazon.com/VCE-25-Pack-Degree-Keystone-Adapter-Blue/dp/B07PXJB48V/ref=sxin_15_pa_sp_search_thematic_sspa</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Raspberry-Model-2019-Quad-Bluetooth/dp/B07TC2BK1X/ref=sr_1_3niYN9g&amp;dib_tag=se&amp;keywords=raspberry%2Bpi&amp;qid=1713384161&amp;sr=8-3&amp;th=1</t>
   </si>
   <si>
-    <t>https://www.amazon.com/BrosTrend-USB-WiFi-Linux-Adapter/dp/B0BTHQNK5S/ref=sr_1_1_sspa</t>
+    <t>FPGA Enclosure</t>
+  </si>
+  <si>
+    <t>Pi Enclosure</t>
+  </si>
+  <si>
+    <t>USB Extender</t>
+  </si>
+  <si>
+    <t>Temp Sensor</t>
+  </si>
+  <si>
+    <t>Pi Mount</t>
+  </si>
+  <si>
+    <t>FPGA Mount</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hilitand-Terasic-DE10‑Nano-Accessories-Assemble/dp/B09M8QCXFQ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Dorhea-Raspberry-Supporting-Installation-Heatsinks/dp/B07JBB9QSB/ref=sr_1_40</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cable-Matters-Extreme-Flexible-Charging/dp/B0CLZ93MGD/ref=sr_1_1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/LORDTRONICS-Extender-Transfer-Charging-Playstation/dp/B0D7F6DF2T/ref=sr_1_33_sspa</t>
+  </si>
+  <si>
+    <t>Pi &amp; Cam Power Cables</t>
+  </si>
+  <si>
+    <t>FPGA Power Cable</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/TENINYU-5-5x2-5mm-Barrel-Ampere-Positive/dp/B079ZY3MQB/ref=sr_1_1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Taidacent-Temperature-Humidity-Atmospheric-Barometric/dp/B08Y5KZSR2/ref=sr_1_21</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SmallRig-Adapter-Monitor-Insta360-1138/dp/B00DJ5XH4O/ref=sr_1_5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Neewer-Photography-Reflector-Motorcycle-Accessories/dp/B0CK28KNS7/ref=sr_1_2_sspa</t>
   </si>
 </sst>
 </file>
@@ -359,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -388,6 +415,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -703,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E57B6-D49A-3F48-A921-BC979D4C9169}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -724,8 +755,8 @@
         <v>19</v>
       </c>
       <c r="D1" s="6">
-        <f>SUM(E4:E29)</f>
-        <v>756.69</v>
+        <f>SUM(E4:E34)</f>
+        <v>1030.3200000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -787,7 +818,7 @@
         <v>25.87</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -813,10 +844,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5">
         <v>6.99</v>
@@ -829,7 +860,7 @@
         <v>6.99</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -837,10 +868,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5">
         <v>7.99</v>
@@ -853,7 +884,7 @@
         <v>7.99</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -861,7 +892,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="8">
         <v>9.24</v>
@@ -874,7 +905,7 @@
         <v>9.24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -895,15 +926,15 @@
         <v>9.99</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="8">
         <v>33.99</v>
@@ -916,15 +947,15 @@
         <v>33.99</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="8">
         <v>10.9</v>
@@ -937,15 +968,15 @@
         <v>10.9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="8">
         <v>91.75</v>
@@ -958,7 +989,7 @@
         <v>91.75</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -966,7 +997,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5">
         <v>49.99</v>
@@ -979,15 +1010,15 @@
         <v>49.99</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5">
         <v>3</v>
@@ -1003,10 +1034,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5">
         <v>3</v>
@@ -1022,10 +1053,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="11">
         <v>9.99</v>
@@ -1038,7 +1069,7 @@
         <v>9.99</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1046,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C18" s="5">
         <v>16</v>
@@ -1055,19 +1086,19 @@
         <v>1</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" ref="E18:E23" si="1">C18*D18</f>
+        <f t="shared" ref="E18:E22" si="1">C18*D18</f>
         <v>16</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" s="5">
         <v>7</v>
@@ -1080,15 +1111,15 @@
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20" s="8">
         <v>9</v>
@@ -1101,12 +1132,12 @@
         <v>90</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="8">
@@ -1120,207 +1151,260 @@
         <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="8">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" ref="E23:E33" si="2">C23*D23</f>
+        <v>9</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>64</v>
+      <c r="A24" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" ref="E24:E29" si="2">C24*D24</f>
-        <v>9</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="11">
-        <v>10</v>
-      </c>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="11">
+      <c r="B25" s="1"/>
+      <c r="C25" s="8">
         <v>27.99</v>
       </c>
-      <c r="D26" s="12">
-        <v>1</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
         <f t="shared" si="2"/>
         <v>27.99</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F25" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="8">
+        <v>75.41</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="2"/>
+        <v>75.41</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="8">
+        <v>9.99</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="2"/>
+        <v>9.99</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="8">
+        <v>6.29</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="2"/>
+        <v>6.29</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="8">
+        <v>9.99</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="2"/>
+        <v>9.99</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="8">
+        <v>5.39</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="2"/>
+        <v>5.39</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E27" s="11">
+      <c r="B31" s="1"/>
+      <c r="C31" s="8">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="D31" s="14">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E28" s="11">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="8">
+        <v>14.84</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="11">
+        <v>14.84</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="8">
+        <v>21.24</v>
+      </c>
+      <c r="D33" s="14">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>37</v>
+        <v>21.24</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="5">
-        <v>23.99</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="5">
-        <f>C35*D35</f>
-        <v>23.99</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C34" s="5">
         <v>61.75</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D34" s="14">
         <v>2</v>
       </c>
-      <c r="E36" s="5">
-        <f>C36*D36</f>
+      <c r="E34" s="5">
+        <f>C34*D34</f>
         <v>123.5</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="5">
-        <v>40.99</v>
-      </c>
-      <c r="D37" s="2">
-        <v>2</v>
-      </c>
-      <c r="E37" s="5">
-        <f>C37*D37</f>
-        <v>81.98</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="F34" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
